--- a/CIF_Invoice_20220810.xlsx
+++ b/CIF_Invoice_20220810.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="509">
   <si>
     <t>Invoice</t>
   </si>
@@ -73,7 +73,7 @@
     <t>DTF0060</t>
   </si>
   <si>
-    <t>ขนมเทียนรวมไส้-โกฮ้อง</t>
+    <t>ขนมเทียนรวมไส้-โกฮ้อง (300 กรัม)</t>
   </si>
   <si>
     <t>1.18</t>
@@ -82,7 +82,7 @@
     <t>DTF0150</t>
   </si>
   <si>
-    <t>ปังสังขยา ตรา ชฎา</t>
+    <t>ปังสังขยา ตรา ชฎา (300 กรัม)</t>
   </si>
   <si>
     <t>8.75</t>
@@ -94,7 +94,7 @@
     <t>DTF0170</t>
   </si>
   <si>
-    <t>ปังเว้ยเฮ้ยทุกไส้</t>
+    <t>ปังเว้ยเฮ้ยทุกไส้ (150 กรัม)</t>
   </si>
   <si>
     <t>1.29</t>
@@ -103,7 +103,7 @@
     <t>DTF0210</t>
   </si>
   <si>
-    <t>ลอดช่องวัดเจษ 400 ก</t>
+    <t>ลอดช่องวัดเจษ 400 ก (400 กรัม)</t>
   </si>
   <si>
     <t>4.05</t>
@@ -115,7 +115,7 @@
     <t>DTF0320</t>
   </si>
   <si>
-    <t>ชิฟฟ่อนหนองพงนก-กล่องใหญ่</t>
+    <t>ชิฟฟ่อนหนองพงนก-กล่องใหญ่ (330 กรัม)</t>
   </si>
   <si>
     <t>6.40</t>
@@ -127,7 +127,7 @@
     <t>DTF0700</t>
   </si>
   <si>
-    <t>ขนมบ้าบิ่น นันทวรรณ</t>
+    <t>ขนมบ้าบิ่น นันทวรรณ (240 กรัม)</t>
   </si>
   <si>
     <t>3.72</t>
@@ -139,7 +139,7 @@
     <t>DTF0800</t>
   </si>
   <si>
-    <t>ปัง 85</t>
+    <t>ปัง 85 (350 กรัม)</t>
   </si>
   <si>
     <t>1.19</t>
@@ -148,7 +148,7 @@
     <t>DTF0930</t>
   </si>
   <si>
-    <t>ยูโรคัดตาร์ดเค้ก</t>
+    <t>ยูโรคัดตาร์ดเค้ก (220 กรัม)</t>
   </si>
   <si>
     <t>6.24</t>
@@ -157,7 +157,7 @@
     <t>DTF0940</t>
   </si>
   <si>
-    <t>ขนมเปี๊ยะใหญ่ ซอย8</t>
+    <t>ขนมเปี๊ยะใหญ่ ซอย8 (800 กรัม)</t>
   </si>
   <si>
     <t>0.38</t>
@@ -166,7 +166,7 @@
     <t>DTF1420</t>
   </si>
   <si>
-    <t>ขนมปังเนยโสด</t>
+    <t>ขนมปังเนยโสด (155 กรัม)</t>
   </si>
   <si>
     <t>1.13</t>
@@ -181,7 +181,7 @@
     <t>DTF1430</t>
   </si>
   <si>
-    <t>ปังทุเรียน</t>
+    <t>ปังทุเรียน (450 กรัม)</t>
   </si>
   <si>
     <t>9.60</t>
@@ -205,7 +205,7 @@
     <t>FT0011</t>
   </si>
   <si>
-    <t>ทุเรียนแกะหมอนทอง ลังเล็ก</t>
+    <t>ทุเรียนแกะหมอนทอง (ลังเล็ก) (6000 กรัม)</t>
   </si>
   <si>
     <t>753.48</t>
@@ -217,7 +217,7 @@
     <t>FT0012</t>
   </si>
   <si>
-    <t>ทุเรียนแกะหมอนทอง ลังใหญ่</t>
+    <t>ทุเรียนแกะหมอนทอง (ลังใหญ่) (12000 กรัม)</t>
   </si>
   <si>
     <t>3013.92</t>
@@ -235,7 +235,7 @@
     <t>FT0015</t>
   </si>
   <si>
-    <t>ทุเรียนกล่อง เดี่ยว</t>
+    <t>ทุเรียนกล่อง (เดี่ยว) (500 กรัม)</t>
   </si>
   <si>
     <t>0.00</t>
@@ -244,7 +244,7 @@
     <t>FT0035</t>
   </si>
   <si>
-    <t>ทุเรียนภูเขาไฟ</t>
+    <t>ทุเรียนภูเขาไฟ (500 กรัม)</t>
   </si>
   <si>
     <t>60.58</t>
@@ -262,7 +262,7 @@
     <t>FT0060</t>
   </si>
   <si>
-    <t>มังคุด</t>
+    <t>มังคุด (1000 กรัม)</t>
   </si>
   <si>
     <t>70.00</t>
@@ -274,7 +274,7 @@
     <t>FT0075</t>
   </si>
   <si>
-    <t>ลองกอง</t>
+    <t>ลองกอง (1000 กรัม)</t>
   </si>
   <si>
     <t>28.00</t>
@@ -283,7 +283,7 @@
     <t>FT0090</t>
   </si>
   <si>
-    <t>มะม่วงน้ำดอกไม้</t>
+    <t>มะม่วงน้ำดอกไม้ (1000 กรัม)</t>
   </si>
   <si>
     <t>27.59</t>
@@ -292,7 +292,7 @@
     <t>FT0110</t>
   </si>
   <si>
-    <t>สละ</t>
+    <t>สละ (1000 กรัม)</t>
   </si>
   <si>
     <t>21.00</t>
@@ -301,7 +301,7 @@
     <t>FT0140</t>
   </si>
   <si>
-    <t>เงาะ</t>
+    <t>เงาะ (1000 กรัม)</t>
   </si>
   <si>
     <t>88.62</t>
@@ -319,7 +319,7 @@
     <t>FT0230</t>
   </si>
   <si>
-    <t>กล้วยน้ำว้า</t>
+    <t>กล้วยน้ำว้า (650 กรัม)</t>
   </si>
   <si>
     <t>20.22</t>
@@ -328,7 +328,7 @@
     <t>FT0480</t>
   </si>
   <si>
-    <t>ทุเรียนหมอนทองลูก</t>
+    <t>ทุเรียนหมอนทองลูก (10000 กรัม)</t>
   </si>
   <si>
     <t>2170.00</t>
@@ -355,7 +355,7 @@
     <t>VB0031</t>
   </si>
   <si>
-    <t>คะน้าต้น</t>
+    <t>คะน้าต้น (100 กรัม)</t>
   </si>
   <si>
     <t>0.37</t>
@@ -364,7 +364,7 @@
     <t>VB0050</t>
   </si>
   <si>
-    <t>ผักบุ้งจีน</t>
+    <t>ผักบุ้งจีน (1000 กรัม)</t>
   </si>
   <si>
     <t>14.57</t>
@@ -373,19 +373,25 @@
     <t>VB0051</t>
   </si>
   <si>
+    <t>ผักบุ้งจีน (100 กรัม)</t>
+  </si>
+  <si>
     <t>0.32</t>
   </si>
   <si>
     <t>VB0052</t>
   </si>
   <si>
+    <t>ผักบุ้งจีน (200 กรัม)</t>
+  </si>
+  <si>
     <t>2.97</t>
   </si>
   <si>
     <t>VB0061</t>
   </si>
   <si>
-    <t>ใบกะเพรา</t>
+    <t>ใบกะเพรา (100 กรัม)</t>
   </si>
   <si>
     <t>1.11</t>
@@ -400,7 +406,7 @@
     <t>VB0071</t>
   </si>
   <si>
-    <t>ใบแมงลัก</t>
+    <t>ใบแมงลัก (100 กรัม)</t>
   </si>
   <si>
     <t>2.24</t>
@@ -418,7 +424,7 @@
     <t>VB0081</t>
   </si>
   <si>
-    <t>ใบโหระพา</t>
+    <t>ใบโหระพา (100 กรัม)</t>
   </si>
   <si>
     <t>0.22</t>
@@ -427,7 +433,7 @@
     <t>VB0160</t>
   </si>
   <si>
-    <t>ถั่วฝักยาว</t>
+    <t>ถั่วฝักยาว (1000 กรัม)</t>
   </si>
   <si>
     <t>8.58</t>
@@ -436,19 +442,25 @@
     <t>VB0161</t>
   </si>
   <si>
+    <t>ถั่วฝักยาว (100 กรัม)</t>
+  </si>
+  <si>
     <t>0.88</t>
   </si>
   <si>
     <t>VB0162</t>
   </si>
   <si>
+    <t>ถั่วฝักยาว (200 กรัม)</t>
+  </si>
+  <si>
     <t>4.42</t>
   </si>
   <si>
     <t>VB0170</t>
   </si>
   <si>
-    <t>มะเขือเปราะ</t>
+    <t>มะเขือเปราะ (1000 กรัม)</t>
   </si>
   <si>
     <t>15.34</t>
@@ -457,6 +469,9 @@
     <t>VB0172</t>
   </si>
   <si>
+    <t>มะเขือเปราะ (200 กรัม)</t>
+  </si>
+  <si>
     <t>1.59</t>
   </si>
   <si>
@@ -466,7 +481,7 @@
     <t>VB0182</t>
   </si>
   <si>
-    <t>มะระจีน</t>
+    <t>มะระจีน (200 กรัม)</t>
   </si>
   <si>
     <t>2.11</t>
@@ -478,7 +493,7 @@
     <t>VB0190</t>
   </si>
   <si>
-    <t>มะละกอดิบ</t>
+    <t>มะละกอดิบ (1000 กรัม)</t>
   </si>
   <si>
     <t>13.59</t>
@@ -487,7 +502,7 @@
     <t>VB0210</t>
   </si>
   <si>
-    <t>พริกจินดาแดง</t>
+    <t>พริกจินดาแดง (1000 กรัม)</t>
   </si>
   <si>
     <t>9.39</t>
@@ -496,6 +511,9 @@
     <t>VB0211</t>
   </si>
   <si>
+    <t>พริกจินดาแดง (100 กรัม)</t>
+  </si>
+  <si>
     <t>1.00</t>
   </si>
   <si>
@@ -505,7 +523,7 @@
     <t>VB0261</t>
   </si>
   <si>
-    <t>มะเขือพวง</t>
+    <t>มะเขือพวง (100 กรัม)</t>
   </si>
   <si>
     <t>0.90</t>
@@ -523,7 +541,7 @@
     <t>VB0271</t>
   </si>
   <si>
-    <t>เม็ดกระถิน</t>
+    <t>เม็ดกระถิน (100 กรัม)</t>
   </si>
   <si>
     <t>0.74</t>
@@ -535,7 +553,7 @@
     <t>VB0281</t>
   </si>
   <si>
-    <t>ผักกระเฉด</t>
+    <t>ผักกระเฉด (100 กรัม)</t>
   </si>
   <si>
     <t>0.26</t>
@@ -544,6 +562,9 @@
     <t>VB0282</t>
   </si>
   <si>
+    <t>ผักกระเฉด (200 กรัม)</t>
+  </si>
+  <si>
     <t>1.69</t>
   </si>
   <si>
@@ -553,7 +574,7 @@
     <t>VB0291</t>
   </si>
   <si>
-    <t>รากผักชี</t>
+    <t>รากผักชี (100 กรัม)</t>
   </si>
   <si>
     <t>0.71</t>
@@ -568,7 +589,7 @@
     <t>VB0301</t>
   </si>
   <si>
-    <t>พริกไทยอ่อน</t>
+    <t>พริกไทยอ่อน (100 กรัม)</t>
   </si>
   <si>
     <t>0.30</t>
@@ -580,7 +601,7 @@
     <t>VB0311</t>
   </si>
   <si>
-    <t>พริกขี้หนูสวน</t>
+    <t>พริกขี้หนูสวน (100 กรัม)</t>
   </si>
   <si>
     <t>1.16</t>
@@ -592,7 +613,7 @@
     <t>VB0321</t>
   </si>
   <si>
-    <t>ผักบุ้งไทย</t>
+    <t>ผักบุ้งไทย (100 กรัม)</t>
   </si>
   <si>
     <t>0.80</t>
@@ -601,13 +622,16 @@
     <t>VB0322</t>
   </si>
   <si>
+    <t>ผักบุ้งไทย (200 กรัม)</t>
+  </si>
+  <si>
     <t>2.91</t>
   </si>
   <si>
     <t>VB0351</t>
   </si>
   <si>
-    <t>ผักชีฝรั่ง</t>
+    <t>ผักชีฝรั่ง (100 กรัม)</t>
   </si>
   <si>
     <t>1.01</t>
@@ -616,7 +640,7 @@
     <t>VB0361</t>
   </si>
   <si>
-    <t>ใบเตย</t>
+    <t>ใบเตย (100 กรัม)</t>
   </si>
   <si>
     <t>0.49</t>
@@ -628,7 +652,7 @@
     <t>VB0381</t>
   </si>
   <si>
-    <t>กระชายหัว</t>
+    <t>กระชายหัว (100 กรัม)</t>
   </si>
   <si>
     <t>0.81</t>
@@ -637,13 +661,16 @@
     <t>VB0382</t>
   </si>
   <si>
+    <t>กระชายหัว (200 กรัม)</t>
+  </si>
+  <si>
     <t>4.68</t>
   </si>
   <si>
     <t>VB0400</t>
   </si>
   <si>
-    <t>ข่า</t>
+    <t>ข่า (1000 กรัม)</t>
   </si>
   <si>
     <t>7.54</t>
@@ -652,13 +679,16 @@
     <t>VB0401</t>
   </si>
   <si>
+    <t>ข่า (100 กรัม)</t>
+  </si>
+  <si>
     <t>1.55</t>
   </si>
   <si>
     <t>VB0411</t>
   </si>
   <si>
-    <t>ชะอมกำใหญ่</t>
+    <t>ชะอม(กำใหญ่) (100 กรัม)</t>
   </si>
   <si>
     <t>0.91</t>
@@ -673,13 +703,16 @@
     <t>VB0412</t>
   </si>
   <si>
+    <t>ชะอม(กำใหญ่) (200 กรัม)</t>
+  </si>
+  <si>
     <t>5.44</t>
   </si>
   <si>
     <t>VB0431</t>
   </si>
   <si>
-    <t>ผักแขยงกำ</t>
+    <t>ผักแขยง(กำ) (100 กรัม)</t>
   </si>
   <si>
     <t>0.86</t>
@@ -688,25 +721,25 @@
     <t>VB0461</t>
   </si>
   <si>
-    <t>กระเทียมไทย จุก</t>
+    <t>กระเทียมไทย จุก (100 กรัม)</t>
   </si>
   <si>
     <t>VB0471</t>
   </si>
   <si>
-    <t>กระเทียมไทย กลีบ</t>
+    <t>กระเทียมไทย กลีบ (100 กรัม)</t>
   </si>
   <si>
     <t>VB0491</t>
   </si>
   <si>
-    <t>กุ้ยช่ายเขียว</t>
+    <t>กุ้ยช่ายเขียว (100 กรัม)</t>
   </si>
   <si>
     <t>VB0551</t>
   </si>
   <si>
-    <t>ถั่วพู</t>
+    <t>ถั่วพู (100 กรัม)</t>
   </si>
   <si>
     <t>0.78</t>
@@ -718,7 +751,7 @@
     <t>VB0621</t>
   </si>
   <si>
-    <t>เห็ดกระด้าง</t>
+    <t>เห็ดกระด้าง (100 กรัม)</t>
   </si>
   <si>
     <t>0.96</t>
@@ -730,7 +763,7 @@
     <t>VB0711</t>
   </si>
   <si>
-    <t>ใบมะกรูด</t>
+    <t>ใบมะกรูด (100 กรัม)</t>
   </si>
   <si>
     <t>0.77</t>
@@ -739,7 +772,7 @@
     <t>VB0741</t>
   </si>
   <si>
-    <t>ใบย่านาง</t>
+    <t>ใบย่านาง (100 กรัม)</t>
   </si>
   <si>
     <t>0.44</t>
@@ -751,7 +784,7 @@
     <t>VB0760</t>
   </si>
   <si>
-    <t>ใบตอง</t>
+    <t>ใบตอง (1000 กรัม)</t>
   </si>
   <si>
     <t>8.19</t>
@@ -760,19 +793,22 @@
     <t>VB0811</t>
   </si>
   <si>
-    <t>มะเขือเหลือง</t>
+    <t>มะเขือเหลือง (100 กรัม)</t>
   </si>
   <si>
     <t>VB0812</t>
   </si>
   <si>
+    <t>มะเขือเหลือง (200 กรัม)</t>
+  </si>
+  <si>
     <t>1.74</t>
   </si>
   <si>
     <t>VB0831</t>
   </si>
   <si>
-    <t>มะเขือไข่เต่า</t>
+    <t>มะเขือไข่เต่า (100 กรัม)</t>
   </si>
   <si>
     <t>0.89</t>
@@ -781,7 +817,7 @@
     <t>VB0861</t>
   </si>
   <si>
-    <t>มะเขือเทศเครือส้ม</t>
+    <t>มะเขือเทศเครือส้ม (100 กรัม)</t>
   </si>
   <si>
     <t>0.21</t>
@@ -790,7 +826,7 @@
     <t>VB0951</t>
   </si>
   <si>
-    <t>สะตอแกะ</t>
+    <t>สะตอแกะ (100 กรัม)</t>
   </si>
   <si>
     <t>0.60</t>
@@ -808,7 +844,7 @@
     <t>VB0962</t>
   </si>
   <si>
-    <t>กระถินฝักแก่</t>
+    <t>กระถินฝักแก่ (200 กรัม)</t>
   </si>
   <si>
     <t>1.65</t>
@@ -817,7 +853,7 @@
     <t>VB0970</t>
   </si>
   <si>
-    <t>ตะไคร้</t>
+    <t>ตะไคร้ (1000 กรัม)</t>
   </si>
   <si>
     <t>13.36</t>
@@ -829,13 +865,16 @@
     <t>VB0972</t>
   </si>
   <si>
+    <t>ตะไคร้ (200 กรัม)</t>
+  </si>
+  <si>
     <t>6.07</t>
   </si>
   <si>
     <t>VB0990</t>
   </si>
   <si>
-    <t>ฝักสะตอ</t>
+    <t>ฝักสะตอ (1000 กรัม)</t>
   </si>
   <si>
     <t>10.15</t>
@@ -844,25 +883,25 @@
     <t>VB1021</t>
   </si>
   <si>
-    <t>ผักบุ้งนา</t>
+    <t>ผักบุ้งนา (100 กรัม)</t>
   </si>
   <si>
     <t>VB1041</t>
   </si>
   <si>
-    <t>ขึ้นฉ่าย</t>
+    <t>ขึ้นฉ่าย (100 กรัม)</t>
   </si>
   <si>
     <t>VB1051</t>
   </si>
   <si>
-    <t>มะระขี้นก</t>
+    <t>มะระขี้นก (100 กรัม)</t>
   </si>
   <si>
     <t>VB1061</t>
   </si>
   <si>
-    <t>ไส้ข่าอ่อน</t>
+    <t>ไส้ข่าอ่อน (100 กรัม)</t>
   </si>
   <si>
     <t>1.85</t>
@@ -871,7 +910,7 @@
     <t>VB1111</t>
   </si>
   <si>
-    <t>ก้านทูน</t>
+    <t>ก้านทูน (100 กรัม)</t>
   </si>
   <si>
     <t>0.28</t>
@@ -880,19 +919,19 @@
     <t>VB1131</t>
   </si>
   <si>
-    <t>ผักหวานป่า</t>
+    <t>ผักหวานป่า (100 กรัม)</t>
   </si>
   <si>
     <t>VB1141</t>
   </si>
   <si>
-    <t>ใบย่านาง เฉพาะใบ</t>
+    <t>ใบย่านาง เฉพาะใบ (100 กรัม)</t>
   </si>
   <si>
     <t>VB1180</t>
   </si>
   <si>
-    <t>ยอดกระถิน</t>
+    <t>ยอดกระถิน (1000 กรัม)</t>
   </si>
   <si>
     <t>7.90</t>
@@ -901,34 +940,40 @@
     <t>VB1181</t>
   </si>
   <si>
+    <t>ยอดกระถิน (100 กรัม)</t>
+  </si>
+  <si>
     <t>VB1191</t>
   </si>
   <si>
-    <t>ฝักกระถินอ่อน</t>
+    <t>ฝักกระถินอ่อน (100 กรัม)</t>
   </si>
   <si>
     <t>VB1192</t>
   </si>
   <si>
+    <t>ฝักกระถินอ่อน (200 กรัม)</t>
+  </si>
+  <si>
     <t>3.30</t>
   </si>
   <si>
     <t>VB1251</t>
   </si>
   <si>
-    <t>เห็ดขอนขาว</t>
+    <t>เห็ดขอนขาว (100 กรัม)</t>
   </si>
   <si>
     <t>VB1271</t>
   </si>
   <si>
-    <t>มะเขือเสวย</t>
+    <t>มะเขือเสวย (100 กรัม)</t>
   </si>
   <si>
     <t>VB1281</t>
   </si>
   <si>
-    <t>ชะพลู</t>
+    <t>ชะพลู (100 กรัม)</t>
   </si>
   <si>
     <t>0.25</t>
@@ -937,7 +982,7 @@
     <t>VB1301</t>
   </si>
   <si>
-    <t>มะกอกลาว</t>
+    <t>มะกอกลาว (100 กรัม)</t>
   </si>
   <si>
     <t>0.55</t>
@@ -946,7 +991,7 @@
     <t>VB1312</t>
   </si>
   <si>
-    <t>ขี้เหล็กต้ม</t>
+    <t>ขี้เหล็กต้ม (200 กรัม)</t>
   </si>
   <si>
     <t>3.54</t>
@@ -955,7 +1000,7 @@
     <t>VB1321</t>
   </si>
   <si>
-    <t>ดอกขจร/Cowslip creeper</t>
+    <t>ดอกขจร/Cowslip creeper (100 กรัม)</t>
   </si>
   <si>
     <t>0.94</t>
@@ -964,7 +1009,7 @@
     <t>VB1330</t>
   </si>
   <si>
-    <t>หน่อไม้ไผ่ตง</t>
+    <t>หน่อไม้ไผ่ตง (1000 กรัม)</t>
   </si>
   <si>
     <t>45.61</t>
@@ -973,10 +1018,13 @@
     <t>VB1332</t>
   </si>
   <si>
+    <t>หน่อไม้ไผ่ตง (200 กรัม)</t>
+  </si>
+  <si>
     <t>VB1341</t>
   </si>
   <si>
-    <t>พริกลาว</t>
+    <t>พริกลาว (100 กรัม)</t>
   </si>
   <si>
     <t>0.47</t>
@@ -985,25 +1033,25 @@
     <t>VB1361</t>
   </si>
   <si>
-    <t>ผักแพว</t>
+    <t>ผักแพว (100 กรัม)</t>
   </si>
   <si>
     <t>VB1381</t>
   </si>
   <si>
-    <t>ดอกโสน</t>
+    <t>ดอกโสน (100 กรัม)</t>
   </si>
   <si>
     <t>VB1431</t>
   </si>
   <si>
-    <t>ใบมะขามอ่อน</t>
+    <t>ใบมะขามอ่อน (100 กรัม)</t>
   </si>
   <si>
     <t>VB1463</t>
   </si>
   <si>
-    <t>ดอกสะเดาแช่แข็ง</t>
+    <t>ดอกสะเดาแช่แข็ง (300g)</t>
   </si>
   <si>
     <t>10.98</t>
@@ -1024,7 +1072,7 @@
     <t>MSF0050</t>
   </si>
   <si>
-    <t>ลูกชิ้นหมูโฮเด้ง/โกเด้ง</t>
+    <t>ลูกชิ้นหมูโฮเด้ง/โกเด้ง (500 กรัม)</t>
   </si>
   <si>
     <t>16.47</t>
@@ -1036,7 +1084,7 @@
     <t>MSF0070</t>
   </si>
   <si>
-    <t>ไส้กรอกแดง แหลมทอง</t>
+    <t>ไส้กรอกแดง แหลมทอง (1000 กรัม)</t>
   </si>
   <si>
     <t>28.81</t>
@@ -1045,7 +1093,7 @@
     <t>MSF0120</t>
   </si>
   <si>
-    <t>ลูกชิ้นเนื้อวัว แชมป์</t>
+    <t>ลูกชิ้นเนื้อวัว แชมป์ (1000 กรัม)</t>
   </si>
   <si>
     <t>61.46</t>
@@ -1054,7 +1102,7 @@
     <t>MSF0170</t>
   </si>
   <si>
-    <t>ไส้กรอกแดง แหลมทอง-รสนม</t>
+    <t>ไส้กรอกแดง แหลมทอง-รสนม (500 กรัม)</t>
   </si>
   <si>
     <t>4.70</t>
@@ -1063,7 +1111,7 @@
     <t>MSF0330</t>
   </si>
   <si>
-    <t>ไส้กรอกชีสเล็ก</t>
+    <t>ไส้กรอกชีสเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>29.71</t>
@@ -1075,7 +1123,7 @@
     <t>MSF0370</t>
   </si>
   <si>
-    <t>โบโลน่าพริก สไลด์ แหลมทอง</t>
+    <t>โบโลน่าพริก สไลด์ แหลมทอง (1000 กรัม)</t>
   </si>
   <si>
     <t>36.09</t>
@@ -1084,7 +1132,7 @@
     <t>MSF0390</t>
   </si>
   <si>
-    <t>ไส้กรอกไก่ สอด ไส้ชีส AFM</t>
+    <t>ไส้กรอกไก่ สอด ไส้ชีส AFM (500 กรัม)</t>
   </si>
   <si>
     <t>2.54</t>
@@ -1093,7 +1141,7 @@
     <t>MSF0470</t>
   </si>
   <si>
-    <t>ฟุตลองสไปซี่ 7-11</t>
+    <t>ฟุตลองสไปซี่ 7-11 (130 กรัม)</t>
   </si>
   <si>
     <t>0.07</t>
@@ -1102,13 +1150,13 @@
     <t>MSF0490</t>
   </si>
   <si>
-    <t>สโมกกี้ ไบท์ 7-11</t>
+    <t>สโมกกี้ ไบท์ 7-11 (400 กรัม)</t>
   </si>
   <si>
     <t>MSF0510</t>
   </si>
   <si>
-    <t>ลูกชิ้นจิตรปลากราย</t>
+    <t>ลูกชิ้นจิตรปลากราย (500 กรัม)</t>
   </si>
   <si>
     <t>17.28</t>
@@ -1117,7 +1165,7 @@
     <t>MSF0550</t>
   </si>
   <si>
-    <t>หมูยอดอนเมือง</t>
+    <t>หมูยอดอนเมือง (100 กรัม)</t>
   </si>
   <si>
     <t>1.94</t>
@@ -1126,7 +1174,7 @@
     <t>MSF0600</t>
   </si>
   <si>
-    <t>ไส้กรอกแดงแหลมทอง</t>
+    <t>ไส้กรอกแดงแหลมทอง (1000 กรัม)</t>
   </si>
   <si>
     <t>19.64</t>
@@ -1138,7 +1186,7 @@
     <t>MSF0640</t>
   </si>
   <si>
-    <t>จิตรทอดมันปลากราย</t>
+    <t>จิตรทอดมันปลากราย (500 กรัม)</t>
   </si>
   <si>
     <t>2.88</t>
@@ -1147,13 +1195,13 @@
     <t>MSF0670</t>
   </si>
   <si>
-    <t>ทอดมันปลากรายคุณอุ๊</t>
+    <t>ทอดมันปลากรายคุณอุ๊ (500 กรัม)</t>
   </si>
   <si>
     <t>MSF0710</t>
   </si>
   <si>
-    <t>ลูกชิ้นทอดมันปลาสีส้ม</t>
+    <t>ลูกชิ้นทอดมันปลาสีส้ม (1000 กรัม)</t>
   </si>
   <si>
     <t>20.30</t>
@@ -1162,13 +1210,13 @@
     <t>MSF0750</t>
   </si>
   <si>
-    <t>ลูกชิ้นเอ็นเนื้อ แชมป์</t>
+    <t>ลูกชิ้นเอ็นเนื้อ แชมป์ (1000 กรัม)</t>
   </si>
   <si>
     <t>RF1220</t>
   </si>
   <si>
-    <t>แฮกึ๋น กุ้งล้วน 5 เส้น นภาพร</t>
+    <t>แฮกึ๋น กุ้งล้วน 5 เส้น นภาพร (1000 กรัม)</t>
   </si>
   <si>
     <t>1.05</t>
@@ -1189,13 +1237,13 @@
     <t>IF0060</t>
   </si>
   <si>
-    <t>ไก่จ๊อห้าดาว</t>
+    <t>ไก่จ๊อห้าดาว (1000 กรัม)</t>
   </si>
   <si>
     <t>IF0065</t>
   </si>
   <si>
-    <t>ไก่จ๊อห้าดาว ถุงเล็ก</t>
+    <t>ไก่จ๊อห้าดาว ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>2.62</t>
@@ -1204,7 +1252,7 @@
     <t>IF0540</t>
   </si>
   <si>
-    <t>CP เลือดหมูก้อน</t>
+    <t>CP เลือดหมูก้อน (400 กรัม)</t>
   </si>
   <si>
     <t>7.03</t>
@@ -1216,7 +1264,7 @@
     <t>IF0560</t>
   </si>
   <si>
-    <t>ปลาส้มวาสนา</t>
+    <t>ปลาส้มวาสนา (500 กรัม)</t>
   </si>
   <si>
     <t>13.00</t>
@@ -1225,7 +1273,7 @@
     <t>IF0580</t>
   </si>
   <si>
-    <t>เลือดไก่</t>
+    <t>เลือดไก่ (350 กรัม)</t>
   </si>
   <si>
     <t>9.90</t>
@@ -1240,7 +1288,7 @@
     <t>IF0640</t>
   </si>
   <si>
-    <t>ปลาทูหอม</t>
+    <t>ปลาทูหอม (500 กรัม)</t>
   </si>
   <si>
     <t>5.16</t>
@@ -1249,7 +1297,7 @@
     <t>IF0655</t>
   </si>
   <si>
-    <t>ปลาดุกแดดเดียว ถุงเล็ก</t>
+    <t>ปลาดุกแดดเดียว ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>24.95</t>
@@ -1261,7 +1309,7 @@
     <t>IF0840</t>
   </si>
   <si>
-    <t>เส้นบะหมี่ไข่ ตราไก่ เส้นกลม</t>
+    <t>เส้นบะหมี่ไข่ ตราไก่ (เส้นกลม) (500 กรัม)</t>
   </si>
   <si>
     <t>9.83</t>
@@ -1270,13 +1318,13 @@
     <t>IF0895</t>
   </si>
   <si>
-    <t>เส้นใหญ่ตราดอกบัว ถุงเล็ก</t>
+    <t>เส้นใหญ่ตราดอกบัว ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>IF0920</t>
   </si>
   <si>
-    <t>กุนเชียงเชือกแดง</t>
+    <t>กุนเชียงเชือกแดง (450 กรัม)</t>
   </si>
   <si>
     <t>10.56</t>
@@ -1297,7 +1345,7 @@
     <t>RF1320</t>
   </si>
   <si>
-    <t>ซาลาเปาทับหลี-หมูแดง</t>
+    <t>ซาลาเปาทับหลี-หมูแดง (100 กรัม)</t>
   </si>
   <si>
     <t>0.76</t>
@@ -1306,7 +1354,7 @@
     <t>RF1340</t>
   </si>
   <si>
-    <t>กระเพาะปลาอุดร</t>
+    <t>กระเพาะปลาอุดร (110 กรัม)</t>
   </si>
   <si>
     <t>1.53</t>
@@ -1330,7 +1378,7 @@
     <t>DSF0260</t>
   </si>
   <si>
-    <t>ปลาหมึกสไปรซี่</t>
+    <t>ปลาหมึกสไปรซี่ (500 กรัม)</t>
   </si>
   <si>
     <t>23.10</t>
@@ -1339,7 +1387,7 @@
     <t>DSF0380</t>
   </si>
   <si>
-    <t>หมึกแพไข่แดง</t>
+    <t>หมึกแพไข่แดง (500 กรัม)</t>
   </si>
   <si>
     <t>31.50</t>
@@ -1348,19 +1396,19 @@
     <t>DSF0670</t>
   </si>
   <si>
-    <t>กุ้งวังเล็ก</t>
+    <t>กุ้งวังเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>DSF0810</t>
   </si>
   <si>
-    <t>ปลาช่อนกลาง</t>
+    <t>ปลาช่อนกลาง (500 กรัม)</t>
   </si>
   <si>
     <t>DSF0830</t>
   </si>
   <si>
-    <t>ปลาช่อนเล็ก</t>
+    <t>ปลาช่อนเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>18.69</t>
@@ -1369,7 +1417,7 @@
     <t>RF1200</t>
   </si>
   <si>
-    <t>ก๋วยเตี๋ยวเรือต่อปาก</t>
+    <t>ก๋วยเตี๋ยวเรือต่อปาก (200 กรัม)</t>
   </si>
   <si>
     <t>3.64</t>
@@ -1399,7 +1447,7 @@
     <t>EF0035</t>
   </si>
   <si>
-    <t>แม่เป้งสดฟรีซ ถุงเล็ก</t>
+    <t>แม่เป้งสดฟรีซ ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>14.78</t>
@@ -1408,7 +1456,7 @@
     <t>EF0055</t>
   </si>
   <si>
-    <t>ดักแด้สดฟรีซ ถุงเล็ก</t>
+    <t>ดักแด้สดฟรีซ ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>2.78</t>
@@ -1417,7 +1465,7 @@
     <t>EF0235</t>
   </si>
   <si>
-    <t>หอยขมแกะ ถุงเล็ก</t>
+    <t>หอยขมแกะ ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
     <t>11.23</t>
@@ -1426,13 +1474,13 @@
     <t>EF0300</t>
   </si>
   <si>
-    <t>แหนมดอนเมือง กม.26</t>
+    <t>แหนมดอนเมือง กม.26 (130 กรัม)</t>
   </si>
   <si>
     <t>EF0400</t>
   </si>
   <si>
-    <t>แหนมตุ้มจิ๋ว กม.26</t>
+    <t>แหนมตุ้มจิ๋ว กม.26 (60 กรัม)</t>
   </si>
   <si>
     <t>0.31</t>
@@ -1453,7 +1501,7 @@
     <t>FIF0110</t>
   </si>
   <si>
-    <t>ปลาร้า หม่ำ</t>
+    <t>ปลาร้า หม่ำ (350 กรัม)</t>
   </si>
   <si>
     <t>24.50</t>
@@ -1462,19 +1510,19 @@
     <t>FIF0120</t>
   </si>
   <si>
-    <t>ปลาร้าแม่อีพิม</t>
+    <t>ปลาร้าแม่อีพิม (400 กรัม)</t>
   </si>
   <si>
     <t>FIF0160</t>
   </si>
   <si>
-    <t>ปลาร้านางฟ้า</t>
+    <t>ปลาร้านางฟ้า (400 กรัม)</t>
   </si>
   <si>
     <t>FIF0170</t>
   </si>
   <si>
-    <t>น้ำปู</t>
+    <t>น้ำปู (150 กรัม)</t>
   </si>
   <si>
     <t>3.29</t>
@@ -1483,7 +1531,7 @@
     <t>FIF0410</t>
   </si>
   <si>
-    <t>ปลาร้าแม่เหรียญ</t>
+    <t>ปลาร้าแม่เหรียญ (350 กรัม)</t>
   </si>
   <si>
     <t>7.23</t>
@@ -1553,132 +1601,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F7" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A299:F305" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A9:F28" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A30:F65" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A67:F229" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A231:F252" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A254:F271" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A273:F276" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A278:F289" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A291:F297" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1976,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2347,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -3141,7 +3063,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
         <v>105</v>
@@ -3203,7 +3125,7 @@
         <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D69">
         <v>0.4</v>
@@ -3212,7 +3134,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3220,10 +3142,10 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3232,7 +3154,7 @@
         <v>1.48</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3240,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3252,7 +3174,7 @@
         <v>1.11</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3260,10 +3182,10 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3272,7 +3194,7 @@
         <v>1.11</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3280,10 +3202,10 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D73">
         <v>0.3</v>
@@ -3292,7 +3214,7 @@
         <v>1.11</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3300,10 +3222,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3312,7 +3234,7 @@
         <v>1.11</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3320,10 +3242,10 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3332,7 +3254,7 @@
         <v>1.11</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3340,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3352,7 +3274,7 @@
         <v>1.11</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3360,10 +3282,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3372,7 +3294,7 @@
         <v>1.11</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3380,10 +3302,10 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -3392,7 +3314,7 @@
         <v>1.11</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3400,10 +3322,10 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3412,7 +3334,7 @@
         <v>1.12</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3420,10 +3342,10 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3432,7 +3354,7 @@
         <v>1.12</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3440,10 +3362,10 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D81">
         <v>0.5</v>
@@ -3452,7 +3374,7 @@
         <v>1.12</v>
       </c>
       <c r="F81" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3460,10 +3382,10 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3472,7 +3394,7 @@
         <v>1.12</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3480,10 +3402,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D83">
         <v>0.3</v>
@@ -3492,7 +3414,7 @@
         <v>1.12</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3500,10 +3422,10 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3512,7 +3434,7 @@
         <v>1.12</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3520,10 +3442,10 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3532,7 +3454,7 @@
         <v>1.11</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3540,10 +3462,10 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3552,7 +3474,7 @@
         <v>1.11</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3560,10 +3482,10 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -3572,7 +3494,7 @@
         <v>1.11</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3580,10 +3502,10 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3592,7 +3514,7 @@
         <v>1.11</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3600,10 +3522,10 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3612,7 +3534,7 @@
         <v>1.11</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3620,10 +3542,10 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -3632,7 +3554,7 @@
         <v>1.11</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3640,10 +3562,10 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D91">
         <v>0.2</v>
@@ -3652,7 +3574,7 @@
         <v>1.11</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3660,10 +3582,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3672,7 +3594,7 @@
         <v>8.58</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3680,10 +3602,10 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D93">
         <v>0.8</v>
@@ -3692,7 +3614,7 @@
         <v>1.11</v>
       </c>
       <c r="F93" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3700,10 +3622,10 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D94">
         <v>0.4</v>
@@ -3712,7 +3634,7 @@
         <v>2.21</v>
       </c>
       <c r="F94" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3720,10 +3642,10 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3732,7 +3654,7 @@
         <v>2.21</v>
       </c>
       <c r="F95" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3740,10 +3662,10 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -3752,7 +3674,7 @@
         <v>7.67</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3760,10 +3682,10 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3772,7 +3694,7 @@
         <v>1.59</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3780,10 +3702,10 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -3792,7 +3714,7 @@
         <v>1.59</v>
       </c>
       <c r="F98" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3800,10 +3722,10 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3812,7 +3734,7 @@
         <v>2.11</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3820,10 +3742,10 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D100">
         <v>0.4</v>
@@ -3832,7 +3754,7 @@
         <v>2.11</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3840,10 +3762,10 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -3852,7 +3774,7 @@
         <v>6.8</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3860,10 +3782,10 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3872,7 +3794,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3880,10 +3802,10 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3892,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3900,10 +3822,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D104">
         <v>30</v>
@@ -3912,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3920,10 +3842,10 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3932,7 +3854,7 @@
         <v>0.9</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3940,10 +3862,10 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D106">
         <v>0.4</v>
@@ -3952,7 +3874,7 @@
         <v>0.9</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3960,10 +3882,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D107">
         <v>0.1</v>
@@ -3972,7 +3894,7 @@
         <v>0.9</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3980,10 +3902,10 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3992,7 +3914,7 @@
         <v>0.9</v>
       </c>
       <c r="F108" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4000,10 +3922,10 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4012,7 +3934,7 @@
         <v>0.9</v>
       </c>
       <c r="F109" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4020,10 +3942,10 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4032,7 +3954,7 @@
         <v>0.9</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4040,10 +3962,10 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D111">
         <v>0.3</v>
@@ -4052,7 +3974,7 @@
         <v>0.9</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4060,10 +3982,10 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D112">
         <v>0.5</v>
@@ -4080,10 +4002,10 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4092,7 +4014,7 @@
         <v>0.74</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4100,10 +4022,10 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D114">
         <v>0.2</v>
@@ -4112,7 +4034,7 @@
         <v>0.74</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4120,10 +4042,10 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D115">
         <v>0.5</v>
@@ -4140,10 +4062,10 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4152,7 +4074,7 @@
         <v>0.74</v>
       </c>
       <c r="F116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4160,10 +4082,10 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D117">
         <v>0.1</v>
@@ -4172,7 +4094,7 @@
         <v>0.88</v>
       </c>
       <c r="F117" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4180,10 +4102,10 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4192,7 +4114,7 @@
         <v>0.88</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4200,10 +4122,10 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D119">
         <v>0.3</v>
@@ -4212,7 +4134,7 @@
         <v>0.88</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4220,10 +4142,10 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4232,7 +4154,7 @@
         <v>1.69</v>
       </c>
       <c r="F120" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4240,10 +4162,10 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D121">
         <v>0.4</v>
@@ -4252,7 +4174,7 @@
         <v>1.69</v>
       </c>
       <c r="F121" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4260,10 +4182,10 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4272,7 +4194,7 @@
         <v>1.69</v>
       </c>
       <c r="F122" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4280,10 +4202,10 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>0.6</v>
@@ -4292,7 +4214,7 @@
         <v>1.18</v>
       </c>
       <c r="F123" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4300,10 +4222,10 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D124">
         <v>0.2</v>
@@ -4312,7 +4234,7 @@
         <v>1.18</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4320,10 +4242,10 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D125">
         <v>0.3</v>
@@ -4332,7 +4254,7 @@
         <v>1.18</v>
       </c>
       <c r="F125" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4340,10 +4262,10 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D126">
         <v>0.3</v>
@@ -4352,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4360,10 +4282,10 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D127">
         <v>0.5</v>
@@ -4372,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4380,10 +4302,10 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4392,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4400,10 +4322,10 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4412,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4420,10 +4342,10 @@
         <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4432,7 +4354,7 @@
         <v>1.16</v>
       </c>
       <c r="F130" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4440,10 +4362,10 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D131">
         <v>0.5</v>
@@ -4452,7 +4374,7 @@
         <v>1.16</v>
       </c>
       <c r="F131" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4460,10 +4382,10 @@
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4472,7 +4394,7 @@
         <v>1.16</v>
       </c>
       <c r="F132" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4480,10 +4402,10 @@
         <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D133">
         <v>0.4</v>
@@ -4492,7 +4414,7 @@
         <v>0.8</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4500,10 +4422,10 @@
         <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4512,7 +4434,7 @@
         <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4520,10 +4442,10 @@
         <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -4532,7 +4454,7 @@
         <v>1.46</v>
       </c>
       <c r="F135" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4540,10 +4462,10 @@
         <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -4552,7 +4474,7 @@
         <v>1.46</v>
       </c>
       <c r="F136" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4560,10 +4482,10 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D137">
         <v>0.3</v>
@@ -4572,7 +4494,7 @@
         <v>1.01</v>
       </c>
       <c r="F137" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4580,10 +4502,10 @@
         <v>72</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4592,7 +4514,7 @@
         <v>1.01</v>
       </c>
       <c r="F138" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4600,10 +4522,10 @@
         <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4612,7 +4534,7 @@
         <v>1.01</v>
       </c>
       <c r="F139" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4620,10 +4542,10 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D140">
         <v>0.6</v>
@@ -4632,7 +4554,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F140" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4640,10 +4562,10 @@
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D141">
         <v>0.5</v>
@@ -4652,7 +4574,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4660,10 +4582,10 @@
         <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D142">
         <v>0.5</v>
@@ -4672,7 +4594,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4680,10 +4602,10 @@
         <v>77</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D143">
         <v>0.3</v>
@@ -4692,7 +4614,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4700,10 +4622,10 @@
         <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -4712,7 +4634,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F144" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4720,10 +4642,10 @@
         <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4732,7 +4654,7 @@
         <v>1.56</v>
       </c>
       <c r="F145" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4740,10 +4662,10 @@
         <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -4752,7 +4674,7 @@
         <v>7.54</v>
       </c>
       <c r="F146" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4760,10 +4682,10 @@
         <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -4772,7 +4694,7 @@
         <v>0.78</v>
       </c>
       <c r="F147" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4780,10 +4702,10 @@
         <v>82</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D148">
         <v>0.3</v>
@@ -4792,7 +4714,7 @@
         <v>0.91</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4800,10 +4722,10 @@
         <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C149" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4812,7 +4734,7 @@
         <v>0.91</v>
       </c>
       <c r="F149" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4820,10 +4742,10 @@
         <v>84</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D150">
         <v>0.9</v>
@@ -4832,7 +4754,7 @@
         <v>0.91</v>
       </c>
       <c r="F150" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4840,10 +4762,10 @@
         <v>85</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4852,7 +4774,7 @@
         <v>0.91</v>
       </c>
       <c r="F151" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4860,10 +4782,10 @@
         <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D152">
         <v>0.1</v>
@@ -4872,7 +4794,7 @@
         <v>0.91</v>
       </c>
       <c r="F152" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4880,10 +4802,10 @@
         <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D153">
         <v>1.5</v>
@@ -4892,7 +4814,7 @@
         <v>0.91</v>
       </c>
       <c r="F153" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4900,10 +4822,10 @@
         <v>88</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4912,7 +4834,7 @@
         <v>0.91</v>
       </c>
       <c r="F154" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4920,10 +4842,10 @@
         <v>89</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4932,7 +4854,7 @@
         <v>0.91</v>
       </c>
       <c r="F155" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4940,10 +4862,10 @@
         <v>90</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C156" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -4952,7 +4874,7 @@
         <v>1.81</v>
       </c>
       <c r="F156" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4960,10 +4882,10 @@
         <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C157" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -4972,7 +4894,7 @@
         <v>0.86</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4980,10 +4902,10 @@
         <v>92</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D158">
         <v>0.3</v>
@@ -4992,7 +4914,7 @@
         <v>1.11</v>
       </c>
       <c r="F158" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5000,10 +4922,10 @@
         <v>93</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -5012,7 +4934,7 @@
         <v>1.11</v>
       </c>
       <c r="F159" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5020,10 +4942,10 @@
         <v>94</v>
       </c>
       <c r="B160" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D160">
         <v>0.3</v>
@@ -5032,7 +4954,7 @@
         <v>0.86</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5040,10 +4962,10 @@
         <v>95</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -5052,7 +4974,7 @@
         <v>0.86</v>
       </c>
       <c r="F161" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5060,10 +4982,10 @@
         <v>96</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -5072,7 +4994,7 @@
         <v>0.78</v>
       </c>
       <c r="F162" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5080,10 +5002,10 @@
         <v>97</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C163" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D163">
         <v>0.3</v>
@@ -5092,7 +5014,7 @@
         <v>0.78</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5100,10 +5022,10 @@
         <v>98</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C164" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D164">
         <v>0.5</v>
@@ -5112,7 +5034,7 @@
         <v>0.78</v>
       </c>
       <c r="F164" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5120,10 +5042,10 @@
         <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C165" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D165">
         <v>0.5</v>
@@ -5132,7 +5054,7 @@
         <v>0.78</v>
       </c>
       <c r="F165" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5140,10 +5062,10 @@
         <v>100</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C166" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -5152,7 +5074,7 @@
         <v>0.78</v>
       </c>
       <c r="F166" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5160,10 +5082,10 @@
         <v>101</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -5172,7 +5094,7 @@
         <v>0.96</v>
       </c>
       <c r="F167" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5180,10 +5102,10 @@
         <v>102</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C168" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D168">
         <v>0.5</v>
@@ -5192,7 +5114,7 @@
         <v>0.96</v>
       </c>
       <c r="F168" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5200,10 +5122,10 @@
         <v>103</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -5212,7 +5134,7 @@
         <v>1.11</v>
       </c>
       <c r="F169" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5220,10 +5142,10 @@
         <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -5232,7 +5154,7 @@
         <v>1.11</v>
       </c>
       <c r="F170" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5240,10 +5162,10 @@
         <v>105</v>
       </c>
       <c r="B171" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D171">
         <v>0.7</v>
@@ -5252,7 +5174,7 @@
         <v>1.11</v>
       </c>
       <c r="F171" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5260,10 +5182,10 @@
         <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D172">
         <v>0.5</v>
@@ -5272,7 +5194,7 @@
         <v>0.88</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5280,10 +5202,10 @@
         <v>107</v>
       </c>
       <c r="B173" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D173">
         <v>0.6</v>
@@ -5292,7 +5214,7 @@
         <v>0.88</v>
       </c>
       <c r="F173" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5300,10 +5222,10 @@
         <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -5312,7 +5234,7 @@
         <v>8.19</v>
       </c>
       <c r="F174" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5320,10 +5242,10 @@
         <v>109</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D175">
         <v>0.4</v>
@@ -5332,7 +5254,7 @@
         <v>0.9</v>
       </c>
       <c r="F175" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5340,10 +5262,10 @@
         <v>110</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C176" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -5352,7 +5274,7 @@
         <v>1.74</v>
       </c>
       <c r="F176" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5360,10 +5282,10 @@
         <v>111</v>
       </c>
       <c r="B177" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C177" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -5372,7 +5294,7 @@
         <v>0.89</v>
       </c>
       <c r="F177" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5380,10 +5302,10 @@
         <v>112</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C178" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D178">
         <v>0.2</v>
@@ -5392,7 +5314,7 @@
         <v>1.06</v>
       </c>
       <c r="F178" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5400,10 +5322,10 @@
         <v>113</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D179">
         <v>0.3</v>
@@ -5412,7 +5334,7 @@
         <v>2.01</v>
       </c>
       <c r="F179" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5420,10 +5342,10 @@
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D180">
         <v>0.5</v>
@@ -5432,7 +5354,7 @@
         <v>2.01</v>
       </c>
       <c r="F180" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5440,10 +5362,10 @@
         <v>115</v>
       </c>
       <c r="B181" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C181" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -5452,7 +5374,7 @@
         <v>2.01</v>
       </c>
       <c r="F181" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5460,10 +5382,10 @@
         <v>116</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D182">
         <v>0.2</v>
@@ -5472,7 +5394,7 @@
         <v>2.01</v>
       </c>
       <c r="F182" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5480,10 +5402,10 @@
         <v>117</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -5492,7 +5414,7 @@
         <v>2.01</v>
       </c>
       <c r="F183" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5500,10 +5422,10 @@
         <v>118</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -5512,7 +5434,7 @@
         <v>2.01</v>
       </c>
       <c r="F184" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5520,10 +5442,10 @@
         <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C185" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -5532,7 +5454,7 @@
         <v>1.65</v>
       </c>
       <c r="F185" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5540,10 +5462,10 @@
         <v>120</v>
       </c>
       <c r="B186" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C186" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -5552,7 +5474,7 @@
         <v>6.68</v>
       </c>
       <c r="F186" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5560,10 +5482,10 @@
         <v>121</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C187" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -5572,7 +5494,7 @@
         <v>6.68</v>
       </c>
       <c r="F187" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5580,10 +5502,10 @@
         <v>122</v>
       </c>
       <c r="B188" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -5592,7 +5514,7 @@
         <v>2.02</v>
       </c>
       <c r="F188" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5600,10 +5522,10 @@
         <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -5612,7 +5534,7 @@
         <v>10.15</v>
       </c>
       <c r="F189" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5620,10 +5542,10 @@
         <v>124</v>
       </c>
       <c r="B190" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C190" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D190">
         <v>0.4</v>
@@ -5632,7 +5554,7 @@
         <v>0.83</v>
       </c>
       <c r="F190" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5640,10 +5562,10 @@
         <v>125</v>
       </c>
       <c r="B191" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D191">
         <v>0.3</v>
@@ -5652,7 +5574,7 @@
         <v>0.9</v>
       </c>
       <c r="F191" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5660,10 +5582,10 @@
         <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C192" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5672,7 +5594,7 @@
         <v>0.9</v>
       </c>
       <c r="F192" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5680,10 +5602,10 @@
         <v>127</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C193" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D193">
         <v>0.5</v>
@@ -5692,7 +5614,7 @@
         <v>0.88</v>
       </c>
       <c r="F193" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5700,10 +5622,10 @@
         <v>128</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5712,7 +5634,7 @@
         <v>0.88</v>
       </c>
       <c r="F194" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5720,10 +5642,10 @@
         <v>129</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D195">
         <v>0.4</v>
@@ -5740,10 +5662,10 @@
         <v>130</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -5752,7 +5674,7 @@
         <v>0.92</v>
       </c>
       <c r="F196" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5760,10 +5682,10 @@
         <v>131</v>
       </c>
       <c r="B197" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C197" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D197">
         <v>0.3</v>
@@ -5772,7 +5694,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F197" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5780,10 +5702,10 @@
         <v>132</v>
       </c>
       <c r="B198" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -5800,10 +5722,10 @@
         <v>133</v>
       </c>
       <c r="B199" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C199" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D199">
         <v>0.5</v>
@@ -5812,7 +5734,7 @@
         <v>1.06</v>
       </c>
       <c r="F199" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5820,10 +5742,10 @@
         <v>134</v>
       </c>
       <c r="B200" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -5832,7 +5754,7 @@
         <v>7.9</v>
       </c>
       <c r="F200" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5840,10 +5762,10 @@
         <v>135</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -5852,7 +5774,7 @@
         <v>0.86</v>
       </c>
       <c r="F201" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5860,10 +5782,10 @@
         <v>136</v>
       </c>
       <c r="B202" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D202">
         <v>0.3</v>
@@ -5872,7 +5794,7 @@
         <v>0.86</v>
       </c>
       <c r="F202" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5880,10 +5802,10 @@
         <v>137</v>
       </c>
       <c r="B203" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C203" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -5892,7 +5814,7 @@
         <v>0.86</v>
       </c>
       <c r="F203" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5900,10 +5822,10 @@
         <v>138</v>
       </c>
       <c r="B204" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -5912,7 +5834,7 @@
         <v>0.86</v>
       </c>
       <c r="F204" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5920,10 +5842,10 @@
         <v>139</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C205" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -5932,7 +5854,7 @@
         <v>1.65</v>
       </c>
       <c r="F205" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5940,10 +5862,10 @@
         <v>140</v>
       </c>
       <c r="B206" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C206" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -5960,10 +5882,10 @@
         <v>141</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C207" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -5972,7 +5894,7 @@
         <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5980,10 +5902,10 @@
         <v>142</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C208" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -5992,7 +5914,7 @@
         <v>0.82</v>
       </c>
       <c r="F208" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6000,10 +5922,10 @@
         <v>143</v>
       </c>
       <c r="B209" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D209">
         <v>0.4</v>
@@ -6012,7 +5934,7 @@
         <v>0.82</v>
       </c>
       <c r="F209" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6020,10 +5942,10 @@
         <v>144</v>
       </c>
       <c r="B210" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -6032,7 +5954,7 @@
         <v>0.82</v>
       </c>
       <c r="F210" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6040,10 +5962,10 @@
         <v>145</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C211" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D211">
         <v>0.3</v>
@@ -6052,7 +5974,7 @@
         <v>0.82</v>
       </c>
       <c r="F211" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6060,10 +5982,10 @@
         <v>146</v>
       </c>
       <c r="B212" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C212" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D212">
         <v>0.5</v>
@@ -6072,7 +5994,7 @@
         <v>1.11</v>
       </c>
       <c r="F212" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6080,10 +6002,10 @@
         <v>147</v>
       </c>
       <c r="B213" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -6092,7 +6014,7 @@
         <v>1.11</v>
       </c>
       <c r="F213" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6100,10 +6022,10 @@
         <v>148</v>
       </c>
       <c r="B214" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C214" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -6112,7 +6034,7 @@
         <v>1.11</v>
       </c>
       <c r="F214" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6120,10 +6042,10 @@
         <v>149</v>
       </c>
       <c r="B215" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C215" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D215">
         <v>0.6</v>
@@ -6140,10 +6062,10 @@
         <v>150</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C216" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -6152,7 +6074,7 @@
         <v>1.77</v>
       </c>
       <c r="F216" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6160,10 +6082,10 @@
         <v>151</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -6172,7 +6094,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F217" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6180,10 +6102,10 @@
         <v>152</v>
       </c>
       <c r="B218" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C218" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D218">
         <v>6</v>
@@ -6192,7 +6114,7 @@
         <v>7.6</v>
       </c>
       <c r="F218" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6200,10 +6122,10 @@
         <v>153</v>
       </c>
       <c r="B219" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C219" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D219">
         <v>5</v>
@@ -6220,10 +6142,10 @@
         <v>154</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C220" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -6232,7 +6154,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F220" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6240,10 +6162,10 @@
         <v>155</v>
       </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C221" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D221">
         <v>0.5</v>
@@ -6252,7 +6174,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F221" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6260,10 +6182,10 @@
         <v>156</v>
       </c>
       <c r="B222" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -6272,7 +6194,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F222" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6280,10 +6202,10 @@
         <v>157</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D223">
         <v>0.3</v>
@@ -6292,7 +6214,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F223" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6300,10 +6222,10 @@
         <v>158</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C224" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D224">
         <v>0.5</v>
@@ -6312,7 +6234,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F224" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6320,10 +6242,10 @@
         <v>159</v>
       </c>
       <c r="B225" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C225" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -6332,7 +6254,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F225" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6340,10 +6262,10 @@
         <v>160</v>
       </c>
       <c r="B226" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -6352,7 +6274,7 @@
         <v>0.88</v>
       </c>
       <c r="F226" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6360,10 +6282,10 @@
         <v>161</v>
       </c>
       <c r="B227" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C227" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="D227">
         <v>0.2</v>
@@ -6372,7 +6294,7 @@
         <v>1.11</v>
       </c>
       <c r="F227" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6380,10 +6302,10 @@
         <v>162</v>
       </c>
       <c r="B228" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C228" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -6392,23 +6314,23 @@
         <v>3.66</v>
       </c>
       <c r="F228" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="D229" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F229" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6416,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C231" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D231">
         <v>2.5</v>
@@ -6428,7 +6350,7 @@
         <v>6.59</v>
       </c>
       <c r="F231" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6436,10 +6358,10 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C232" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -6448,7 +6370,7 @@
         <v>6.59</v>
       </c>
       <c r="F232" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6456,10 +6378,10 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C233" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D233">
         <v>2.5</v>
@@ -6468,7 +6390,7 @@
         <v>6.59</v>
       </c>
       <c r="F233" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6476,10 +6398,10 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C234" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -6488,7 +6410,7 @@
         <v>9.6</v>
       </c>
       <c r="F234" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6496,10 +6418,10 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C235" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D235">
         <v>5</v>
@@ -6508,7 +6430,7 @@
         <v>12.29</v>
       </c>
       <c r="F235" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6516,10 +6438,10 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C236" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -6528,7 +6450,7 @@
         <v>4.7</v>
       </c>
       <c r="F236" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6536,10 +6458,10 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C237" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D237">
         <v>5</v>
@@ -6548,7 +6470,7 @@
         <v>5.94</v>
       </c>
       <c r="F237" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6556,10 +6478,10 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -6568,7 +6490,7 @@
         <v>5.94</v>
       </c>
       <c r="F238" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6576,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C239" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D239">
         <v>4</v>
@@ -6588,7 +6510,7 @@
         <v>9.02</v>
       </c>
       <c r="F239" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6596,10 +6518,10 @@
         <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C240" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="D240">
         <v>0.5</v>
@@ -6608,7 +6530,7 @@
         <v>5.09</v>
       </c>
       <c r="F240" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6616,10 +6538,10 @@
         <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C241" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D241">
         <v>0.04</v>
@@ -6628,7 +6550,7 @@
         <v>1.77</v>
       </c>
       <c r="F241" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6636,10 +6558,10 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C242" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D242">
         <v>0.07000000000000001</v>
@@ -6648,7 +6570,7 @@
         <v>3.63</v>
       </c>
       <c r="F242" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6656,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C243" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -6668,7 +6590,7 @@
         <v>5.76</v>
       </c>
       <c r="F243" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6676,10 +6598,10 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C244" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -6688,7 +6610,7 @@
         <v>1.94</v>
       </c>
       <c r="F244" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6696,10 +6618,10 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C245" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -6708,7 +6630,7 @@
         <v>9.82</v>
       </c>
       <c r="F245" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6716,10 +6638,10 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C246" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D246">
         <v>6</v>
@@ -6728,7 +6650,7 @@
         <v>9.82</v>
       </c>
       <c r="F246" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6736,10 +6658,10 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C247" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D247">
         <v>0.5</v>
@@ -6748,7 +6670,7 @@
         <v>5.76</v>
       </c>
       <c r="F247" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6756,10 +6678,10 @@
         <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C248" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D248">
         <v>0.5</v>
@@ -6768,7 +6690,7 @@
         <v>5.76</v>
       </c>
       <c r="F248" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6776,10 +6698,10 @@
         <v>19</v>
       </c>
       <c r="B249" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C249" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -6788,7 +6710,7 @@
         <v>10.15</v>
       </c>
       <c r="F249" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6796,10 +6718,10 @@
         <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C250" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D250">
         <v>5</v>
@@ -6808,7 +6730,7 @@
         <v>12.29</v>
       </c>
       <c r="F250" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6816,10 +6738,10 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C251" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D251">
         <v>0.05</v>
@@ -6828,23 +6750,23 @@
         <v>21.04</v>
       </c>
       <c r="F251" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="D252" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F252" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6852,10 +6774,10 @@
         <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C254" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -6872,10 +6794,10 @@
         <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C255" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D255">
         <v>0.5</v>
@@ -6884,7 +6806,7 @@
         <v>5.25</v>
       </c>
       <c r="F255" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6892,10 +6814,10 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C256" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D256">
         <v>2</v>
@@ -6904,7 +6826,7 @@
         <v>3.51</v>
       </c>
       <c r="F256" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6912,10 +6834,10 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C257" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D257">
         <v>1.6</v>
@@ -6924,7 +6846,7 @@
         <v>3.51</v>
       </c>
       <c r="F257" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6932,10 +6854,10 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C258" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D258">
         <v>2.5</v>
@@ -6944,7 +6866,7 @@
         <v>5.2</v>
       </c>
       <c r="F258" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6952,10 +6874,10 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C259" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D259">
         <v>3.5</v>
@@ -6964,7 +6886,7 @@
         <v>2.83</v>
       </c>
       <c r="F259" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6972,10 +6894,10 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C260" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D260">
         <v>1.4</v>
@@ -6984,7 +6906,7 @@
         <v>2.83</v>
       </c>
       <c r="F260" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6992,10 +6914,10 @@
         <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C261" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D261">
         <v>1.75</v>
@@ -7004,7 +6926,7 @@
         <v>2.83</v>
       </c>
       <c r="F261" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7012,10 +6934,10 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C262" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D262">
         <v>3.5</v>
@@ -7024,7 +6946,7 @@
         <v>2.83</v>
       </c>
       <c r="F262" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7032,10 +6954,10 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C263" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="D263">
         <v>2.5</v>
@@ -7044,7 +6966,7 @@
         <v>2.07</v>
       </c>
       <c r="F263" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7052,10 +6974,10 @@
         <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C264" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D264">
         <v>5</v>
@@ -7064,7 +6986,7 @@
         <v>4.99</v>
       </c>
       <c r="F264" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7072,10 +6994,10 @@
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C265" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -7084,7 +7006,7 @@
         <v>4.99</v>
       </c>
       <c r="F265" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7092,10 +7014,10 @@
         <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C266" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -7104,7 +7026,7 @@
         <v>3.28</v>
       </c>
       <c r="F266" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7112,10 +7034,10 @@
         <v>14</v>
       </c>
       <c r="B267" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C267" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -7124,7 +7046,7 @@
         <v>3.28</v>
       </c>
       <c r="F267" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7132,10 +7054,10 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C268" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D268">
         <v>2.5</v>
@@ -7144,7 +7066,7 @@
         <v>3.28</v>
       </c>
       <c r="F268" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7152,10 +7074,10 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C269" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D269">
         <v>1.8</v>
@@ -7164,7 +7086,7 @@
         <v>5.87</v>
       </c>
       <c r="F269" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7172,10 +7094,10 @@
         <v>17</v>
       </c>
       <c r="B270" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C270" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D270">
         <v>1.8</v>
@@ -7184,23 +7106,23 @@
         <v>5.87</v>
       </c>
       <c r="F270" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="D271" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F271" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7208,10 +7130,10 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C273" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D273">
         <v>0.6</v>
@@ -7220,7 +7142,7 @@
         <v>1.27</v>
       </c>
       <c r="F273" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7228,10 +7150,10 @@
         <v>2</v>
       </c>
       <c r="B274" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C274" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="D274">
         <v>1.1</v>
@@ -7240,7 +7162,7 @@
         <v>1.39</v>
       </c>
       <c r="F274" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7248,10 +7170,10 @@
         <v>3</v>
       </c>
       <c r="B275" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C275" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="D275">
         <v>0.44</v>
@@ -7260,23 +7182,23 @@
         <v>1.39</v>
       </c>
       <c r="F275" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D276" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="F276" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7284,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C278" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -7296,7 +7218,7 @@
         <v>7.7</v>
       </c>
       <c r="F278" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7304,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C279" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -7316,7 +7238,7 @@
         <v>10.5</v>
       </c>
       <c r="F279" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7324,10 +7246,10 @@
         <v>3</v>
       </c>
       <c r="B280" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C280" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D280">
         <v>0.5</v>
@@ -7336,7 +7258,7 @@
         <v>11.87</v>
       </c>
       <c r="F280" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7344,10 +7266,10 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C281" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -7364,10 +7286,10 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C282" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -7376,7 +7298,7 @@
         <v>6.23</v>
       </c>
       <c r="F282" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7384,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C283" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -7396,7 +7318,7 @@
         <v>1.82</v>
       </c>
       <c r="F283" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7404,10 +7326,10 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C284" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -7416,7 +7338,7 @@
         <v>1.82</v>
       </c>
       <c r="F284" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7424,10 +7346,10 @@
         <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C285" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -7436,7 +7358,7 @@
         <v>1.82</v>
       </c>
       <c r="F285" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7444,10 +7366,10 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C286" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D286">
         <v>0.8</v>
@@ -7456,7 +7378,7 @@
         <v>1.82</v>
       </c>
       <c r="F286" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7464,10 +7386,10 @@
         <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C287" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D287">
         <v>10</v>
@@ -7476,7 +7398,7 @@
         <v>1.82</v>
       </c>
       <c r="F287" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7484,10 +7406,10 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C288" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D288">
         <v>5.2</v>
@@ -7496,23 +7418,23 @@
         <v>1.82</v>
       </c>
       <c r="F288" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D289" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="F289" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7520,10 +7442,10 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C291" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -7532,7 +7454,7 @@
         <v>7.39</v>
       </c>
       <c r="F291" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7540,10 +7462,10 @@
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C292" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D292">
         <v>0.5</v>
@@ -7552,7 +7474,7 @@
         <v>5.57</v>
       </c>
       <c r="F292" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7560,10 +7482,10 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C293" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -7572,7 +7494,7 @@
         <v>5.61</v>
       </c>
       <c r="F293" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7580,10 +7502,10 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C294" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D294">
         <v>0.26</v>
@@ -7592,7 +7514,7 @@
         <v>1.7</v>
       </c>
       <c r="F294" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7600,10 +7522,10 @@
         <v>5</v>
       </c>
       <c r="B295" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C295" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D295">
         <v>0.13</v>
@@ -7612,7 +7534,7 @@
         <v>1.7</v>
       </c>
       <c r="F295" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7620,10 +7542,10 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="C296" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D296">
         <v>0.26</v>
@@ -7632,23 +7554,23 @@
         <v>1.18</v>
       </c>
       <c r="F296" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D297" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="F297" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7656,10 +7578,10 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="C299" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D299">
         <v>8.75</v>
@@ -7668,7 +7590,7 @@
         <v>2.8</v>
       </c>
       <c r="F299" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7676,10 +7598,10 @@
         <v>2</v>
       </c>
       <c r="B300" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C300" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D300">
         <v>10</v>
@@ -7696,10 +7618,10 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C301" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D301">
         <v>10</v>
@@ -7716,10 +7638,10 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C302" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D302">
         <v>1.5</v>
@@ -7728,7 +7650,7 @@
         <v>2.19</v>
       </c>
       <c r="F302" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7736,10 +7658,10 @@
         <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C303" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D303">
         <v>1.5</v>
@@ -7748,7 +7670,7 @@
         <v>2.19</v>
       </c>
       <c r="F303" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7756,10 +7678,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C304" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="D304">
         <v>2.1</v>
@@ -7768,29 +7690,29 @@
         <v>3.44</v>
       </c>
       <c r="F304" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D305" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="F305" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" t="s">
-        <v>490</v>
-      </c>
-      <c r="D306" t="s">
-        <v>491</v>
-      </c>
-      <c r="F306" t="s">
-        <v>492</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>506</v>
+      </c>
+      <c r="D307" t="s">
+        <v>507</v>
+      </c>
+      <c r="F307" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7813,20 +7735,11 @@
     <mergeCell ref="A297:C297"/>
     <mergeCell ref="A298:F298"/>
     <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="10">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>